--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExemploGitFlow\2TDSS-ExemploGit-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123C37CD-136F-40A1-9366-AB783A6028B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B14E2BB-D431-4A7B-BB9C-773362DB0F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,10 +42,10 @@
     <t>Telefonia</t>
   </si>
   <si>
-    <t>R$  120.000</t>
-  </si>
-  <si>
     <t>R$ 34.000</t>
+  </si>
+  <si>
+    <t>R$  150.000</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,7 +393,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -401,7 +401,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
